--- a/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-LDO/1.0/LDO_accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-LDO/1.0/LDO_accreditamento-checklist_V8.1.3.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="191">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -295,13 +295,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento</t>
   </si>
   <si>
-    <t>2023-12-01T15:43:01Z</t>
-  </si>
-  <si>
-    <t>2b249a4d2e3539cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.5417d13a260677b1811c99bae7f5cb1a1c64ac78077b1498a88d2948e9fef23f.f5d3655391^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-12-06T18:37:56Z</t>
+  </si>
+  <si>
+    <t>613709540af8d5bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.eb439f3ac7ab9a485a7bb483b0778143fe7bce7f2928ad6f14e0dff1ae438d45.fe76458f89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -321,13 +321,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-12-01T15:43:13Z</t>
-  </si>
-  <si>
-    <t>3884f92744506e99</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.5417d13a260677b1811c99bae7f5cb1a1c64ac78077b1498a88d2948e9fef23f.67babc7006^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Il test non è eseguibile in quanto l'applicativo permette la compilazione delle sezioni obbligatorie ma non tutte le sezioni previste dal caso di test.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -338,30 +335,12 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-12-01T15:43:26Z</t>
-  </si>
-  <si>
-    <t>475ec99dfda8d150</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.4c0460f53b306ff892530d8aca769cf44008c225a69f0fff86af8f37ceb1242b.260d2a573f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-12-01T15:43:37Z</t>
-  </si>
-  <si>
-    <t>37e4034c586b7f30</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.4c0460f53b306ff892530d8aca769cf44008c225a69f0fff86af8f37ceb1242b.687452409b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -416,9 +395,6 @@
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Viene effettuato un controllo sul token ed in caso di errore viene contattato l'operatore di backoffice per apportare le opportune correzioni.</t>
@@ -1548,7 +1524,17 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
     <dxf>
       <font/>
       <fill>
@@ -1579,14 +1565,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sheet1-style 2">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -4274,7 +4260,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="35">
-        <v>45261.0</v>
+        <v>45266.0</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>52</v>
@@ -4319,22 +4305,16 @@
       <c r="E11" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="35">
-        <v>45261.0</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="K11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -4360,27 +4340,21 @@
         <v>49</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="35">
-        <v>45261.0</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -4406,27 +4380,21 @@
         <v>49</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="35">
-        <v>45261.0</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4452,39 +4420,39 @@
         <v>49</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F14" s="35">
         <v>45261.0</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="37" t="s">
         <v>55</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="37" t="s">
         <v>56</v>
@@ -4492,7 +4460,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="249.75" customHeight="1">
@@ -4506,39 +4474,39 @@
         <v>49</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F15" s="35">
         <v>45261.0</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J15" s="37" t="s">
         <v>55</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="37" t="s">
         <v>55</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>56</v>
@@ -4546,7 +4514,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="40"/>
       <c r="T15" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="249.75" customHeight="1">
@@ -4560,10 +4528,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="44"/>
@@ -4580,13 +4548,13 @@
         <v>55</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O16" s="37" t="s">
         <v>55</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="37" t="s">
         <v>56</v>
@@ -4596,7 +4564,7 @@
       </c>
       <c r="S16" s="40"/>
       <c r="T16" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="249.75" customHeight="1">
@@ -4610,20 +4578,20 @@
         <v>49</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
       <c r="J17" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -4636,7 +4604,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="40"/>
       <c r="T17" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="249.75" customHeight="1">
@@ -4650,20 +4618,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
       <c r="J18" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -4676,7 +4644,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="40"/>
       <c r="T18" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="249.75" customHeight="1">
@@ -4690,22 +4658,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F19" s="35">
         <v>45261.0</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>55</v>
@@ -4718,13 +4686,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P19" s="37" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="37" t="s">
         <v>56</v>
@@ -4732,7 +4700,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="40"/>
       <c r="T19" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="249.75" customHeight="1">
@@ -4746,20 +4714,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
       <c r="J20" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -4772,7 +4740,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="40"/>
       <c r="T20" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="249.75" customHeight="1">
@@ -4786,20 +4754,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -4812,7 +4780,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="40"/>
       <c r="T21" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="249.75" customHeight="1">
@@ -4826,22 +4794,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F22" s="35">
         <v>45261.0</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J22" s="37" t="s">
         <v>55</v>
@@ -4854,13 +4822,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O22" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="37" t="s">
         <v>56</v>
@@ -4868,7 +4836,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="40"/>
       <c r="T22" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="249.75" customHeight="1">
@@ -4882,20 +4850,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -4908,7 +4876,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="40"/>
       <c r="T23" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="249.75" customHeight="1">
@@ -4922,20 +4890,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -4948,7 +4916,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="40"/>
       <c r="T24" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="249.75" customHeight="1">
@@ -4962,20 +4930,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
@@ -4988,7 +4956,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="40"/>
       <c r="T25" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="249.75" customHeight="1">
@@ -5002,20 +4970,20 @@
         <v>49</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -5028,7 +4996,7 @@
       <c r="R26" s="39"/>
       <c r="S26" s="40"/>
       <c r="T26" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="249.75" customHeight="1">
@@ -5042,20 +5010,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -5068,7 +5036,7 @@
       <c r="R27" s="39"/>
       <c r="S27" s="40"/>
       <c r="T27" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="249.75" customHeight="1">
@@ -5082,20 +5050,20 @@
         <v>49</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
@@ -5108,7 +5076,7 @@
       <c r="R28" s="39"/>
       <c r="S28" s="40"/>
       <c r="T28" s="41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.25" hidden="1" customHeight="1">
@@ -5119,13 +5087,13 @@
         <v>48</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -5156,22 +5124,22 @@
         <v>49</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F30" s="35">
         <v>45261.0</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H30" s="60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J30" s="61" t="s">
         <v>55</v>
@@ -5199,10 +5167,10 @@
         <v>48</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E31" s="69"/>
       <c r="F31" s="70"/>
@@ -5231,13 +5199,13 @@
         <v>48</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="44"/>
@@ -10366,6 +10334,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(L10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J32 L10:M32 O10:O32">
       <formula1>Sheet1!$B$2:$B$3</formula1>
@@ -10410,24 +10383,24 @@
         <v>29</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -10435,125 +10408,125 @@
         <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>152</v>
-      </c>
       <c r="D5" s="79" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C11" s="79">
         <v>192.0</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -10561,111 +10534,111 @@
         <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C12" s="79">
         <v>208.0</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C13" s="79">
         <v>224.0</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C14" s="79">
         <v>240.0</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C15" s="79">
         <v>256.0</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C16" s="79">
         <v>272.0</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C17" s="79">
         <v>288.0</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C18" s="79">
         <v>304.0</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C19" s="79">
         <v>193.0</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -10673,111 +10646,111 @@
         <v>49</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C20" s="79">
         <v>209.0</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C21" s="79">
         <v>225.0</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C22" s="79">
         <v>241.0</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C23" s="79">
         <v>257.0</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C24" s="79">
         <v>273.0</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C25" s="79">
         <v>289.0</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C26" s="79">
         <v>305.0</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C27" s="79">
         <v>194.0</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -10785,105 +10758,105 @@
         <v>49</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C28" s="79">
         <v>210.0</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C29" s="79">
         <v>226.0</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C30" s="79">
         <v>242.0</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C31" s="79">
         <v>258.0</v>
       </c>
       <c r="D31" s="80" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C32" s="79">
         <v>274.0</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C33" s="79">
         <v>290.0</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C34" s="79">
         <v>306.0</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C35" s="79">
         <v>195.0</v>
@@ -10897,7 +10870,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C36" s="79">
         <v>211.0</v>
@@ -10908,10 +10881,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C37" s="79">
         <v>227.0</v>
@@ -10922,10 +10895,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" s="79">
         <v>243.0</v>
@@ -10936,10 +10909,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C39" s="79">
         <v>259.0</v>
@@ -10950,10 +10923,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C40" s="79">
         <v>275.0</v>
@@ -10964,10 +10937,10 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C41" s="79">
         <v>291.0</v>
@@ -10978,10 +10951,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C42" s="79">
         <v>307.0</v>
@@ -10992,10 +10965,10 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C43" s="79">
         <v>196.0</v>
@@ -11009,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C44" s="79">
         <v>212.0</v>
@@ -11020,10 +10993,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C45" s="79">
         <v>228.0</v>
@@ -11034,10 +11007,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C46" s="79">
         <v>244.0</v>
@@ -11048,10 +11021,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C47" s="79">
         <v>260.0</v>
@@ -11062,10 +11035,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C48" s="79">
         <v>276.0</v>
@@ -11076,10 +11049,10 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C49" s="79">
         <v>292.0</v>
@@ -11090,10 +11063,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C50" s="79">
         <v>308.0</v>
@@ -12093,10 +12066,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="82" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
